--- a/Apresentação/Analise da Pfizer.xlsx
+++ b/Apresentação/Analise da Pfizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tiago\universidade\Seminario\Relatorio_seminario\Apresentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6C216E-6888-4F97-8806-BB12BAC0B63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031ED57B-AB91-43F3-9731-16E24538AA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Est Var" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,16 @@
     <sheet name="PFE Dados Históricos" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DadosExternos_1" localSheetId="2" hidden="1">'PFE Dados Históricos'!$A$1:$H$854</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'PFE Dados Históricos'!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'PFE Dados Históricos'!$C$2:$C$854</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'PFE Dados Históricos'!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'PFE Dados Históricos'!$H$2:$H$854</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'PFE Dados Históricos'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'PFE Dados Históricos'!$B$2:$B$854</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'PFE Dados Históricos'!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'PFE Dados Históricos'!$D$2:$D$854</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'PFE Dados Históricos'!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'PFE Dados Históricos'!$E$2:$E$854</definedName>
     <definedName name="DadosExternos_1" localSheetId="2" hidden="1">'PFE Dados Históricos'!$A$1:$H$854</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2411,7 +2420,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2428,6 +2437,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2476,7 +2493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2492,6 +2509,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2536,6 +2554,5681 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Gráfico de Velas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PFE Dados Históricos'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Último</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.85</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.47</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.79</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.55</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68A7-4088-B64D-F5986439B235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PFE Dados Históricos'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Abertura</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>36.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.28</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.15</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.93</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.44</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68A7-4088-B64D-F5986439B235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PFE Dados Históricos'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$D$2:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>38.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.83</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.92</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.74</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>41.53</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68A7-4088-B64D-F5986439B235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PFE Dados Históricos'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baixa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45056</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45055</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45050</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45048</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45043</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45037</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45036</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45035</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45034</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45030</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45029</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45028</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45027</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45022</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'PFE Dados Históricos'!$E$2:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>38.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.630000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.86</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.71</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.53</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.29</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>40.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-68A7-4088-B64D-F5986439B235}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:upBars>
+          <c:downBars>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:downBars>
+        </c:upDownBars>
+        <c:axId val="151038735"/>
+        <c:axId val="151033935"/>
+      </c:stockChart>
+      <c:dateAx>
+        <c:axId val="151038735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151033935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="151033935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151038735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribuição da Var.</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribuição da Var.</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{0D05B838-9A04-4D6A-8805-5C7795C3BCE7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Var. %</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribuição do Ultimo preço Diario</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribuição do Ultimo preço Diario</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{3992988F-FBC9-4B18-8219-52DC40E3C9D3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Último</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribuição do Preço Maximo do Dia</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribuição do Preço Maximo do Dia</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{46A1239F-A3FF-4898-AF61-D04E5A3049B1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Alta</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribuição dos preços de Abertura</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribuição dos preços de Abertura</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C62CCC34-4158-446A-A555-D63ADEE672C0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Abertura</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Distribuição do Preço Minimo do Dia</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Distribuição do Preço Minimo do Dia</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B8CBD853-6C3F-4D34-8310-4AE627354F5F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Baixa</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="inEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1" hidden="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="368">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="368">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="368">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="368">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="368">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCC3CFC-BD6E-403C-BC8A-DE689FAA3C69}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7900035" y="382905"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão do Excel.
+Editar esta forma ou guardar este livro num formato de ficheiro diferente irá indisponibilizar o gráfico de forma permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24DD07A-6C17-46B7-A2A2-02AECA1F8699}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13098780" y="365760"/>
+              <a:ext cx="4572000" cy="2762250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão do Excel.
+Editar esta forma ou guardar este livro num formato de ficheiro diferente irá indisponibilizar o gráfico de forma permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>596265</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="Gráfico 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275EBBAC-D6B1-F568-32D8-466348088BB3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17962245" y="378142"/>
+              <a:ext cx="4572000" cy="2767965"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão do Excel.
+Editar esta forma ou guardar este livro num formato de ficheiro diferente irá indisponibilizar o gráfico de forma permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>135255</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="10" name="Gráfico 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDBE36E1-24AB-48DD-A779-B7FECA15A858}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7850505" y="3406140"/>
+              <a:ext cx="4572000" cy="2764155"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão do Excel.
+Editar esta forma ou guardar este livro num formato de ficheiro diferente irá indisponibilizar o gráfico de forma permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="11" name="Gráfico 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652F8CA8-0B70-4099-8018-D8B5125E1AA7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13108305" y="3440430"/>
+              <a:ext cx="4572000" cy="2767965"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-PT" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão do Excel.
+Editar esta forma ou guardar este livro num formato de ficheiro diferente irá indisponibilizar o gráfico de forma permanente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>8792</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>313592</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>46891</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34101BAD-EE30-1607-C3BE-4B44FA99EC94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3118,10 +8811,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H854"/>
+  <dimension ref="A1:N854"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H854"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25598,7 +31291,7 @@
         <v>4.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A833" s="12">
         <v>43864</v>
       </c>
@@ -25624,8 +31317,9 @@
       <c r="H833" s="10">
         <v>7.4000000000000003E-3</v>
       </c>
-    </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N833" s="13"/>
+    </row>
+    <row r="834" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A834" s="12">
         <v>43861</v>
       </c>
@@ -25652,7 +31346,7 @@
         <v>4.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A835" s="12">
         <v>43860</v>
       </c>
@@ -25679,7 +31373,7 @@
         <v>-1.35E-2</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A836" s="12">
         <v>43859</v>
       </c>
@@ -25706,7 +31400,7 @@
         <v>-1.47E-2</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A837" s="12">
         <v>43858</v>
       </c>
@@ -25733,7 +31427,7 @@
         <v>-5.04E-2</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A838" s="12">
         <v>43857</v>
       </c>
@@ -25760,7 +31454,7 @@
         <v>8.5000000000000006E-3</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A839" s="12">
         <v>43854</v>
       </c>
@@ -25787,7 +31481,7 @@
         <v>-2.18E-2</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A840" s="12">
         <v>43853</v>
       </c>
@@ -25814,7 +31508,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A841" s="12">
         <v>43852</v>
       </c>
@@ -25841,7 +31535,7 @@
         <v>-3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A842" s="12">
         <v>43851</v>
       </c>
@@ -25868,7 +31562,7 @@
         <v>-4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A843" s="12">
         <v>43847</v>
       </c>
@@ -25895,7 +31589,7 @@
         <v>-2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A844" s="12">
         <v>43846</v>
       </c>
@@ -25922,7 +31616,7 @@
         <v>-1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A845" s="12">
         <v>43845</v>
       </c>
@@ -25949,7 +31643,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A846" s="12">
         <v>43844</v>
       </c>
@@ -25976,7 +31670,7 @@
         <v>1.66E-2</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A847" s="12">
         <v>43843</v>
       </c>
@@ -26003,7 +31697,7 @@
         <v>-1.9E-3</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A848" s="12">
         <v>43840</v>
       </c>
@@ -26207,8 +31901,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
